--- a/biology/Médecine/1422_en_santé_et_médecine/1422_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1422_en_santé_et_médecine/1422_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1422_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1422_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1422 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1422_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1422_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la requête de Philippe le Bon, comte palatin de Bourgogne, le pape Martin V fonde l'université de Dole, en Franche-Comté, qui comporte une faculté de médecine[1].
-Le pape Martin V accorde à l'université de Salamanque des statuts « qui serviront de modèle à l'enseignement de la médecine dans les facultés espagnoles pour les six siècles à venir[2] ».
-En Aragon sous le règne d'Alphonse V, de nouvelles mesures sont prises pour réglementer l'exercice de la médecine et, en particulier, la rémunération des praticiens, limitée par exemple à un florin en cas de décès du patient, ou à deux si ce patient était riche[3].
-La faculté de médecine de Paris est la première à s'ouvrir aux laïcs mariés[4].
-Constance Calenda est reçue docteur en médecine à Naples, première femme connue à obtenir ce grade universitaire[5].
-La pharmacie de l'Hôtel-de-Ville de Tallinn, en Estonie, la plus ancienne d'Europe encore en activité (en 2005), est mentionnée pour la première fois dans un registre du conseil municipal[6].
-1422-1424 : fondation à Grenoble par l'évêque Aymon Ier de Chissé, de l'hôpital Notre-Dame, futur hôpital général de la ville[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À la requête de Philippe le Bon, comte palatin de Bourgogne, le pape Martin V fonde l'université de Dole, en Franche-Comté, qui comporte une faculté de médecine.
+Le pape Martin V accorde à l'université de Salamanque des statuts « qui serviront de modèle à l'enseignement de la médecine dans les facultés espagnoles pour les six siècles à venir ».
+En Aragon sous le règne d'Alphonse V, de nouvelles mesures sont prises pour réglementer l'exercice de la médecine et, en particulier, la rémunération des praticiens, limitée par exemple à un florin en cas de décès du patient, ou à deux si ce patient était riche.
+La faculté de médecine de Paris est la première à s'ouvrir aux laïcs mariés.
+Constance Calenda est reçue docteur en médecine à Naples, première femme connue à obtenir ce grade universitaire.
+La pharmacie de l'Hôtel-de-Ville de Tallinn, en Estonie, la plus ancienne d'Europe encore en activité (en 2005), est mentionnée pour la première fois dans un registre du conseil municipal.
+1422-1424 : fondation à Grenoble par l'évêque Aymon Ier de Chissé, de l'hôpital Notre-Dame, futur hôpital général de la ville.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1422_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1422_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antonio Guaineri compose son traité « de la peste et des poisons » (Tractatus de peste et venenis), qu'il dédie à Louis Ier, duc de Savoie[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antonio Guaineri compose son traité « de la peste et des poisons » (Tractatus de peste et venenis), qu'il dédie à Louis Ier, duc de Savoie.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1422_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1422_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 novembre : Jean Du Bois (né à une date inconnue), chirurgien établi à Lille, au service des ducs de Bourgogne Jean sans Peur et Philippe le Bon[9].
-Antoine Ricart (né à une date inconnue), médecin catalan, un des premiers régents du Collège royal des médecins de Barcelone, médecin des rois d'Aragon[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 novembre : Jean Du Bois (né à une date inconnue), chirurgien établi à Lille, au service des ducs de Bourgogne Jean sans Peur et Philippe le Bon.
+Antoine Ricart (né à une date inconnue), médecin catalan, un des premiers régents du Collège royal des médecins de Barcelone, médecin des rois d'Aragon.</t>
         </is>
       </c>
     </row>
